--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$R$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$S$49</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="93">
   <si>
     <t>Estatus</t>
   </si>
@@ -258,6 +258,57 @@
   </si>
   <si>
     <t>COLORADO</t>
+  </si>
+  <si>
+    <t>FRONTERA</t>
+  </si>
+  <si>
+    <t>PAREX</t>
+  </si>
+  <si>
+    <t>PERENCO</t>
+  </si>
+  <si>
+    <t>EMERALD</t>
+  </si>
+  <si>
+    <t>PETROSANTANDER</t>
+  </si>
+  <si>
+    <t>ECOPETROL</t>
+  </si>
+  <si>
+    <t>LEWIS</t>
+  </si>
+  <si>
+    <t>GRAN TIERRA</t>
+  </si>
+  <si>
+    <t>PETROCOLOMBIA</t>
+  </si>
+  <si>
+    <t>CEPSA</t>
+  </si>
+  <si>
+    <t>UT IJP</t>
+  </si>
+  <si>
+    <t>HADES</t>
+  </si>
+  <si>
+    <t>Operador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIERRACOL </t>
+  </si>
+  <si>
+    <t>OTROS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOCOL </t>
+  </si>
+  <si>
+    <t>Puntacion_O</t>
   </si>
 </sst>
 </file>
@@ -1011,18 +1062,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R49"/>
+  <dimension ref="A1:T49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="17" max="17" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1036,49 +1088,55 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1091,52 +1149,58 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2">
         <v>37.99</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>10.93481843138677</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G49" si="0">E2-F2</f>
+      <c r="H2">
+        <f t="shared" ref="H2:H49" si="0">F2-G2</f>
         <v>27.055181568613232</v>
       </c>
-      <c r="H2">
-        <f>F2/E2</f>
+      <c r="I2">
+        <f>G2/F2</f>
         <v>0.28783412559586125</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.45188575052631574</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <f>(I2+J2+K2+M2+N2)/E2</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>(J2+K2+L2+N2+O2)/F2</f>
         <v>1.3442188653482776E-2</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5.8782996419494901E-2</v>
       </c>
-      <c r="O2">
-        <f>J2+K2+M2+N2</f>
+      <c r="P2">
+        <f>K2+L2+N2+O2</f>
         <v>5.8782996419494901E-2</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>177.43600251491767</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>45575</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <f>VLOOKUP(A2,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>-1.73</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1149,22 +1213,22 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>90</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
         <v>0</v>
       </c>
@@ -1177,22 +1241,28 @@
       <c r="M3">
         <v>0</v>
       </c>
-      <c r="O3">
-        <f t="shared" ref="O3:O49" si="1">J3+K3+M3+N3</f>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="1">
+        <f t="shared" ref="P3:P49" si="1">K3+L3+N3+O3</f>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1">
         <v>54789</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <f>VLOOKUP(A3,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1205,22 +1275,22 @@
       <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="E4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>77</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
         <v>0</v>
       </c>
@@ -1231,24 +1301,30 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>7.0622060834933373</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <f t="shared" si="1"/>
         <v>7.0622060834933373</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1">
         <v>54789</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <f>VLOOKUP(A4,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1261,23 +1337,23 @@
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5">
         <v>11.047459460000001</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.69309200000000004</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>10.354367460000001</v>
       </c>
-      <c r="H5">
-        <f>F5/E5</f>
+      <c r="I5">
+        <f>G5/F5</f>
         <v>6.2737682134929515E-2</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
         <v>0</v>
       </c>
@@ -1285,28 +1361,34 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <f>(I5+J5+K5+M5+N5)/E5</f>
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f t="shared" si="1"/>
+        <f>(J5+K5+L5+N5+O5)/F5</f>
+        <v>0</v>
+      </c>
+      <c r="N5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
         <v>54789</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <f>VLOOKUP(A5,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1319,22 +1401,22 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>90</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
         <v>0</v>
       </c>
@@ -1347,22 +1429,28 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="1"/>
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1">
         <v>54789</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <f>VLOOKUP(A6,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1375,55 +1463,61 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7">
         <v>463.77192982456143</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>120.188955635789</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>343.58297418877243</v>
       </c>
-      <c r="H7">
-        <f>F7/E7</f>
+      <c r="I7">
+        <f>G7/F7</f>
         <v>0.25915530437828532</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>7.6758544210526312</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.5254703684210531</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>0.26111824561403507</v>
       </c>
-      <c r="L7">
-        <f>(I7+J7+K7+M7+N7)/E7</f>
+      <c r="M7">
+        <f>(J7+K7+L7+N7+O7)/F7</f>
         <v>6.8234836426644921E-2</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>8.0769587357606714</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>15.106</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <f t="shared" si="1"/>
         <v>23.969547349795761</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5004.9061535773271</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>45199</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <f>VLOOKUP(A7,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>73.135599999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1436,52 +1530,58 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8">
         <v>44.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.16143838524222687</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>44.338561614757772</v>
       </c>
-      <c r="H8">
-        <f>F8/E8</f>
+      <c r="I8">
+        <f>G8/F8</f>
         <v>3.6278288818477949E-3</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>9.6451999999999996E-2</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.10787299999999998</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>6.8709999999999882E-3</v>
       </c>
-      <c r="L8">
-        <f>(I8+J8+K8+M8+N8)/E8</f>
+      <c r="M8">
+        <f>(J8+K8+L8+N8+O8)/F8</f>
         <v>4.7853093301979547E-3</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>1.7502651938090053E-3</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <f t="shared" si="1"/>
         <v>0.11649426519380898</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>237.84291303140893</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>54789</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <f>VLOOKUP(A8,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1494,22 +1594,22 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
-      <c r="E9">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>90</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
         <v>0</v>
       </c>
@@ -1522,22 +1622,28 @@
       <c r="M9">
         <v>0</v>
       </c>
-      <c r="O9">
-        <f t="shared" si="1"/>
+      <c r="N9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1">
         <v>54789</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <f>VLOOKUP(A9,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1550,55 +1656,61 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10">
         <v>37.449564000000002</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>15.752289107308135</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>21.697274892691865</v>
       </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H15" si="2">F10/E10</f>
+      <c r="I10">
+        <f t="shared" ref="I10:I15" si="2">G10/F10</f>
         <v>0.4206267690408394</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>3.5314060140350878</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>9.8211371929824431E-3</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>0.1028279766666666</v>
       </c>
-      <c r="L10">
-        <f t="shared" ref="L10:L15" si="3">(I10+J10+K10+M10+N10)/E10</f>
+      <c r="M10">
+        <f t="shared" ref="M10:M15" si="3">(J10+K10+L10+N10+O10)/F10</f>
         <v>0.12218880222769969</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.79386224121484583</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.13800000000000001</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <f t="shared" si="1"/>
         <v>1.0445113550744949</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>1121.0376257211387</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>46531</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <f>VLOOKUP(A10,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0.41</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1611,55 +1723,61 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11">
         <v>53.86</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>5.2579760100000001</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>48.602023989999999</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <f t="shared" si="2"/>
         <v>9.7623022836984777E-2</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>2.4854393717543859</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
         <v>0.38600148228070175</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <f t="shared" si="3"/>
         <v>0.27480052167357794</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>3.3393152433038216</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>8.59</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <f t="shared" si="1"/>
         <v>12.315316725584523</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>4194.553282311922</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>54789</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <f>VLOOKUP(A11,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>37.311999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1672,52 +1790,58 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12">
         <v>193.19000000000003</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>93.619614670000018</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>99.570385330000008</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <f t="shared" si="2"/>
         <v>0.48459865764273519</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>3.8093918221052636</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>1.5445976140350814E-2</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
       <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
         <f t="shared" si="3"/>
         <v>3.0878638211645566E-2</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>2.140606317862193</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <f t="shared" si="1"/>
         <v>2.1560522940025439</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>2503.9988506226337</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>47216</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <f>VLOOKUP(A12,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>7.8213999999999997</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1730,52 +1854,58 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13">
         <v>661.42754385964929</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>233.62060809712986</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>427.8069357625194</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <f t="shared" si="2"/>
         <v>0.35320665168232346</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>2.5746313328070176</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.20728902543859662</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>7.570108842105272E-2</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <f t="shared" si="3"/>
         <v>5.5338829255193681E-3</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>0.80264114476645931</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <f t="shared" si="1"/>
         <v>1.0856312586261088</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>1048.0985589193372</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R13" s="1">
         <v>54789</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <f>VLOOKUP(A13,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>4.75</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1788,55 +1918,61 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14">
         <v>273.49535000000003</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>108.23930895306506</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>165.25604104693497</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <f t="shared" si="2"/>
         <v>0.39576288574217094</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1.2980369898245616</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.16361439087719298</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
       <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <f t="shared" si="3"/>
         <v>3.735895604905469E-2</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>3.5878493795690751</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>5.1680000000000001</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <f t="shared" si="1"/>
         <v>8.9194637704462671</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>1386.0600256650573</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="R14" s="1">
         <v>54789</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <f>VLOOKUP(A14,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>-0.97380000000000155</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1849,23 +1985,23 @@
       <c r="D15" t="s">
         <v>26</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15">
         <v>29.53</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>2.2663917780943447E-2</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <f t="shared" si="0"/>
         <v>29.507336082219059</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <f t="shared" si="2"/>
         <v>7.674879031812884E-4</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
         <v>0</v>
       </c>
@@ -1873,28 +2009,34 @@
         <v>0</v>
       </c>
       <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="1"/>
+      <c r="N15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="1">
         <v>47346</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <f>VLOOKUP(A15,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1907,22 +2049,22 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
-      <c r="E16">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>90</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
         <v>0</v>
       </c>
@@ -1935,22 +2077,28 @@
       <c r="M16">
         <v>0</v>
       </c>
-      <c r="O16">
-        <f t="shared" si="1"/>
+      <c r="N16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="1">
         <v>41639</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <f>VLOOKUP(A16,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1963,52 +2111,58 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17">
         <v>89.710000000000008</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>33.031566771999998</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>56.67843322800001</v>
       </c>
-      <c r="H17">
-        <f t="shared" ref="H17:H22" si="4">F17/E17</f>
+      <c r="I17">
+        <f t="shared" ref="I17:I22" si="4">G17/F17</f>
         <v>0.36820384318359151</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>3.0352740000000002</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.3990009999999997</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.0252969999999999</v>
       </c>
-      <c r="L17">
-        <f t="shared" ref="L17:L22" si="5">(I17+J17+K17+M17+N17)/E17</f>
+      <c r="M17">
+        <f t="shared" ref="M17:M22" si="5">(J17+K17+L17+N17+O17)/F17</f>
         <v>7.0653656844597942E-2</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.87876755552888264</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <f t="shared" si="1"/>
         <v>3.3030655555288821</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>2843.5725925280503</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>46796</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <f>VLOOKUP(A17,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>35.559999999999995</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2021,55 +2175,61 @@
       <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18">
         <v>53.01700000000001</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>24.296843508806486</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>28.720156491193524</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <f t="shared" si="4"/>
         <v>0.45828401284128639</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1.7247927684210527</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
         <f t="shared" si="5"/>
         <v>0.22441738061772856</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>3.172143499789065</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>7.0010000000000003</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <f t="shared" si="1"/>
         <v>10.173143499789065</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2008.4868172755073</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>54789</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <f>VLOOKUP(A18,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>58.521799999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2082,52 +2242,58 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19">
         <v>136.75099999999998</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>43.865886068999998</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>92.885113930999978</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <f t="shared" si="4"/>
         <v>0.32077195829646588</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>3.2384445614035089</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>1.8878762105263154</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>0.73802121052631542</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <f t="shared" si="5"/>
         <v>5.9533599625306161E-2</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2.2769372999041004</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <f t="shared" si="1"/>
         <v>4.9028347209567311</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>4582.2173239494205</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R19" s="1">
         <v>47847</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <f>VLOOKUP(A19,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>59.485100000000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2140,55 +2306,61 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>86</v>
+      </c>
+      <c r="F20">
         <v>3046</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>282.71593233149446</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>2763.2840676685055</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <f t="shared" si="4"/>
         <v>9.2815473516577304E-2</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>31.423025617894737</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.43317018964912313</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.10962180649122732</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <f t="shared" si="5"/>
         <v>4.0763474011020179E-2</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>3.601724223532389</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>88.597999999999999</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <f t="shared" si="1"/>
         <v>92.742516219672737</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>7757.7930138902639</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="R20" s="1">
         <v>54789</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <f>VLOOKUP(A20,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>254.14449999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T20">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2201,52 +2373,58 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21">
         <v>1932.73</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>1332.4059633419999</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <f t="shared" si="0"/>
         <v>600.32403665800007</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <f t="shared" si="4"/>
         <v>0.68939063570286585</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>21.247375999999996</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>8.3915830000000007</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>5.0456739999999991</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <f t="shared" si="5"/>
         <v>2.0161148484547156E-2</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>4.281423510538831</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <f t="shared" si="1"/>
         <v>17.718680510538832</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>14757.377505376522</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>54789</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <f>VLOOKUP(A21,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>155.69</v>
       </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2259,23 +2437,23 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22">
         <v>24.291403508771928</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>14.636253820350902</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <f t="shared" si="0"/>
         <v>9.6551496884210266</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <f t="shared" si="4"/>
         <v>0.60252812543604439</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
       <c r="J22">
         <v>0</v>
       </c>
@@ -2283,28 +2461,34 @@
         <v>0</v>
       </c>
       <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="1"/>
+      <c r="N22">
         <v>0</v>
       </c>
       <c r="P22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>5.8737235967093078</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>54789</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <f>VLOOKUP(A22,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2317,22 +2501,22 @@
       <c r="D23" t="s">
         <v>23</v>
       </c>
-      <c r="E23">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>90</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2345,22 +2529,28 @@
       <c r="M23">
         <v>0</v>
       </c>
-      <c r="O23">
-        <f t="shared" si="1"/>
+      <c r="N23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23" s="1">
         <v>42704</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <f>VLOOKUP(A23,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2373,23 +2563,23 @@
       <c r="D24" t="s">
         <v>26</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24">
         <v>1.86</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.32769361000000002</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <f t="shared" si="0"/>
         <v>1.53230639</v>
       </c>
-      <c r="H24">
-        <f t="shared" ref="H24:H29" si="6">F24/E24</f>
+      <c r="I24">
+        <f t="shared" ref="I24:I29" si="6">G24/F24</f>
         <v>0.17617936021505376</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
       <c r="J24">
         <v>0</v>
       </c>
@@ -2397,28 +2587,34 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <f t="shared" ref="L24:L29" si="7">(I24+J24+K24+M24+N24)/E24</f>
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="M24:M29" si="7">(J24+K24+L24+N24+O24)/F24</f>
+        <v>0</v>
+      </c>
+      <c r="N24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24" s="1">
         <v>54789</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <f>VLOOKUP(A24,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2431,55 +2627,61 @@
       <c r="D25" t="s">
         <v>26</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25">
         <v>40.992704999999994</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>16.598780936044378</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <f t="shared" si="0"/>
         <v>24.393924063955616</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <f t="shared" si="6"/>
         <v>0.4049203617093427</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1.0786290000000001</v>
       </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="7"/>
         <v>0.20200234011831442</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>1.4479933377797278</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>5.7539999999999996</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <f t="shared" si="1"/>
         <v>7.2019933377797276</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>1076.7947532696371</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R25" s="1">
         <v>54789</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <f>VLOOKUP(A25,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>19.791799999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2492,55 +2694,61 @@
       <c r="D26" t="s">
         <v>26</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26">
         <v>107.81756700000001</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>51.177479475752669</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <f t="shared" si="0"/>
         <v>56.640087524247342</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <f t="shared" si="6"/>
         <v>0.47466735616240224</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1.2768600000000001</v>
       </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <f t="shared" si="7"/>
         <v>0.18151913281032314</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>3.4890912635589144</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>14.805</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <f t="shared" si="1"/>
         <v>18.294091263558915</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>1277.6822759608524</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="R26" s="1">
         <v>54789</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <f>VLOOKUP(A26,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>33.851599999999998</v>
       </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2553,52 +2761,58 @@
       <c r="D27" t="s">
         <v>18</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27">
         <v>9.379999999999999</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>2.2718624900000002</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <f t="shared" si="0"/>
         <v>7.1081375099999988</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <f t="shared" si="6"/>
         <v>0.24220282409381669</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.0454E-2</v>
       </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
         <f t="shared" si="7"/>
         <v>1.1144989339019191E-3</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="1"/>
+      <c r="N27">
         <v>0</v>
       </c>
       <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>8.4775207163247757</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>54789</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <f>VLOOKUP(A27,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0.05</v>
       </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2611,52 +2825,58 @@
       <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28">
         <v>1160.2</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>965.98022406377004</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <f t="shared" si="0"/>
         <v>194.21977593623001</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <f t="shared" si="6"/>
         <v>0.83259802108582137</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>61.472978066140357</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
         <f t="shared" si="7"/>
         <v>5.7746949289898597E-2</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>5.5250325</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <f t="shared" si="1"/>
         <v>5.5250325</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>12716.913497660986</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>54789</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <f>VLOOKUP(A28,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>454.72800000000007</v>
       </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2669,52 +2889,58 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29">
         <v>26.8</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>7.2255541100000009</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <f t="shared" si="0"/>
         <v>19.57444589</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <f t="shared" si="6"/>
         <v>0.26961022798507467</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.189722</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
         <f t="shared" si="7"/>
         <v>1.0223375347111114E-2</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>8.4264459302577865E-2</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <f t="shared" si="1"/>
         <v>8.4264459302577865E-2</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>173.56136842356264</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>54789</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <f>VLOOKUP(A29,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>3.87</v>
       </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -2727,22 +2953,22 @@
       <c r="D30" t="s">
         <v>18</v>
       </c>
-      <c r="E30">
-        <v>0</v>
+      <c r="E30" t="s">
+        <v>90</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
       <c r="J30">
         <v>0</v>
       </c>
@@ -2755,22 +2981,28 @@
       <c r="M30">
         <v>0</v>
       </c>
-      <c r="O30">
-        <f t="shared" si="1"/>
+      <c r="N30">
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30" s="1">
         <v>54789</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <f>VLOOKUP(A30,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -2783,23 +3015,23 @@
       <c r="D31" t="s">
         <v>26</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31">
         <v>68.989999999999995</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.104827</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>68.885172999999995</v>
       </c>
-      <c r="H31">
-        <f>F31/E31</f>
+      <c r="I31">
+        <f>G31/F31</f>
         <v>1.5194520945064503E-3</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
       <c r="J31">
         <v>0</v>
       </c>
@@ -2807,28 +3039,34 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <f>(I31+J31+K31+M31+N31)/E31</f>
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <f t="shared" si="1"/>
+        <f>(J31+K31+L31+N31+O31)/F31</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31" s="1">
         <v>54789</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <f>VLOOKUP(A31,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -2838,55 +3076,61 @@
       <c r="D32" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F32">
         <v>6430</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>914</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>5516</v>
       </c>
-      <c r="H32">
-        <f>F32/E32</f>
+      <c r="I32">
+        <f>G32/F32</f>
         <v>0.1421461897356143</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>103</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>28</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>41</v>
       </c>
-      <c r="L32">
-        <f>(I32+J32+K32+M32+N32)/E32</f>
+      <c r="M32">
+        <f>(J32+K32+L32+N32+O32)/F32</f>
         <v>5.6609642301710728E-2</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>172</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>20</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>20497.108714472099</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="R32" s="1">
         <v>54789</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <f>VLOOKUP(A32,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>483.58439999999985</v>
       </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -2899,22 +3143,22 @@
       <c r="D33" t="s">
         <v>18</v>
       </c>
-      <c r="E33">
-        <v>0</v>
+      <c r="E33" t="s">
+        <v>90</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I33">
         <v>1</v>
       </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
       <c r="J33">
         <v>0</v>
       </c>
@@ -2927,22 +3171,28 @@
       <c r="M33">
         <v>0</v>
       </c>
-      <c r="O33">
-        <f t="shared" si="1"/>
+      <c r="N33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33" s="1">
         <v>54789</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <f>VLOOKUP(A33,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2955,54 +3205,60 @@
       <c r="D34" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" s="2">
         <v>198.76</v>
       </c>
-      <c r="F34" s="3">
+      <c r="G34" s="3">
         <v>1.4534310500000001</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <f t="shared" si="0"/>
         <v>197.30656894999998</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" ref="H34:H42" si="8">F34/E34</f>
+      <c r="I34" s="2">
+        <f t="shared" ref="I34:I42" si="8">G34/F34</f>
         <v>7.312492704769572E-3</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <v>0.13343212245614033</v>
       </c>
-      <c r="J34" s="2">
-        <v>0</v>
-      </c>
       <c r="K34" s="2">
         <v>0</v>
       </c>
       <c r="L34" s="2">
-        <f t="shared" ref="L34:L42" si="9">(I34+J34+K34+M34+N34)/E34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <f t="shared" ref="M34:M42" si="9">(J34+K34+L34+N34+O34)/F34</f>
         <v>3.4233777375046175E-2</v>
       </c>
-      <c r="M34" s="2">
+      <c r="N34" s="2">
         <v>5.0888734686080372</v>
       </c>
-      <c r="N34" s="2">
+      <c r="O34" s="2">
         <v>1.5820000000000001</v>
       </c>
-      <c r="O34" s="2">
+      <c r="P34" s="2">
         <f t="shared" si="1"/>
         <v>6.6708734686080371</v>
       </c>
-      <c r="P34" s="2">
+      <c r="Q34" s="2">
         <v>281.47727388134649</v>
       </c>
-      <c r="Q34" s="4">
+      <c r="R34" s="4">
         <v>54789</v>
       </c>
-      <c r="R34" s="5">
+      <c r="S34" s="5">
         <v>-20.346000000000004</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -3015,23 +3271,23 @@
       <c r="D35" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="2">
         <v>111.87</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>9.0818396873000005</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <f t="shared" si="0"/>
         <v>102.7881603127</v>
       </c>
-      <c r="H35" s="2">
+      <c r="I35" s="2">
         <f t="shared" si="8"/>
         <v>8.1182083555019213E-2</v>
       </c>
-      <c r="I35" s="2">
-        <v>0</v>
-      </c>
       <c r="J35" s="2">
         <v>0</v>
       </c>
@@ -3039,30 +3295,36 @@
         <v>0</v>
       </c>
       <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
       <c r="N35" s="2">
         <v>0</v>
       </c>
       <c r="O35" s="2">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="P35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
         <v>1.3492997678717351</v>
       </c>
-      <c r="Q35" s="4">
+      <c r="R35" s="4">
         <v>54789</v>
       </c>
-      <c r="R35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S35" s="6">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -3075,52 +3337,58 @@
       <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36">
         <v>55.35</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>6.0521517106999996</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <f t="shared" si="0"/>
         <v>49.297848289299999</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <f t="shared" si="8"/>
         <v>0.10934330100632339</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.32792856140350879</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>7.4183298245614038E-2</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>3.4391999999999978E-2</v>
       </c>
-      <c r="L36">
+      <c r="M36">
         <f t="shared" si="9"/>
         <v>2.7074478453405753E-2</v>
       </c>
-      <c r="M36">
+      <c r="N36">
         <v>1.0620685227468856</v>
       </c>
-      <c r="O36">
+      <c r="P36">
         <f t="shared" si="1"/>
         <v>1.1706438209924996</v>
       </c>
-      <c r="P36">
+      <c r="Q36">
         <v>504.03702593649996</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="R36" s="1">
         <v>45625</v>
       </c>
-      <c r="R36">
+      <c r="S36">
         <f>VLOOKUP(A36,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>7.02</v>
       </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3133,23 +3401,23 @@
       <c r="D37" t="s">
         <v>26</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="s">
+        <v>84</v>
+      </c>
+      <c r="F37">
         <v>76.649179083600245</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>11.0557536173825</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <f t="shared" si="0"/>
         <v>65.593425466217752</v>
       </c>
-      <c r="H37">
+      <c r="I37">
         <f t="shared" si="8"/>
         <v>0.14423838258364302</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37">
         <v>0</v>
       </c>
@@ -3157,28 +3425,34 @@
         <v>0</v>
       </c>
       <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
-      <c r="O37">
-        <f t="shared" si="1"/>
+      <c r="N37">
         <v>0</v>
       </c>
       <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37" s="1">
         <v>54789</v>
       </c>
-      <c r="R37">
+      <c r="S37">
         <f>VLOOKUP(A37,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>-0.64</v>
       </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3191,52 +3465,58 @@
       <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38">
         <v>33.799999999999997</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>22.754733343795362</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <f t="shared" si="0"/>
         <v>11.045266656204635</v>
       </c>
-      <c r="H38">
+      <c r="I38">
         <f t="shared" si="8"/>
         <v>0.67321696283418231</v>
       </c>
-      <c r="I38">
+      <c r="J38">
         <v>0.67576899999999995</v>
       </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
       <c r="K38">
         <v>0</v>
       </c>
       <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
         <f t="shared" si="9"/>
         <v>4.862734146786804E-2</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>0.96783514161393946</v>
       </c>
-      <c r="O38">
+      <c r="P38">
         <f t="shared" si="1"/>
         <v>0.96783514161393946</v>
       </c>
-      <c r="P38">
+      <c r="Q38">
         <v>693.65543240100033</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="R38" s="1">
         <v>54789</v>
       </c>
-      <c r="R38">
+      <c r="S38">
         <f>VLOOKUP(A38,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>-14.664</v>
       </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3249,23 +3529,23 @@
       <c r="D39" t="s">
         <v>26</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39">
         <v>24.973667798507499</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.33953011999999999</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <f t="shared" si="0"/>
         <v>24.6341376785075</v>
       </c>
-      <c r="H39">
+      <c r="I39">
         <f t="shared" si="8"/>
         <v>1.3595524803941347E-2</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39">
         <v>0</v>
       </c>
@@ -3273,28 +3553,34 @@
         <v>0</v>
       </c>
       <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <f t="shared" si="1"/>
+      <c r="N39">
         <v>0</v>
       </c>
       <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39" s="1">
         <v>54789</v>
       </c>
-      <c r="R39">
+      <c r="S39">
         <f>VLOOKUP(A39,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T39">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3307,23 +3593,23 @@
       <c r="D40" t="s">
         <v>18</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="s">
+        <v>90</v>
+      </c>
+      <c r="F40">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>5.9989999999999991E-3</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <f t="shared" si="0"/>
         <v>4.3940010000000003</v>
       </c>
-      <c r="H40">
+      <c r="I40">
         <f t="shared" si="8"/>
         <v>1.3634090909090907E-3</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
       <c r="J40">
         <v>0</v>
       </c>
@@ -3331,28 +3617,34 @@
         <v>0</v>
       </c>
       <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="1"/>
+      <c r="N40">
         <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40" s="1">
         <v>54789</v>
       </c>
-      <c r="R40">
+      <c r="S40">
         <f>VLOOKUP(A40,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3365,52 +3657,58 @@
       <c r="D41" t="s">
         <v>18</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41">
         <v>2199</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>182.57929338079796</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <f t="shared" si="0"/>
         <v>2016.4207066192021</v>
       </c>
-      <c r="H41">
+      <c r="I41">
         <f t="shared" si="8"/>
         <v>8.3028328049476102E-2</v>
       </c>
-      <c r="I41">
+      <c r="J41">
         <v>21.681349000000001</v>
       </c>
-      <c r="J41">
+      <c r="K41">
         <v>11.147173999999998</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>3.5160789999999995</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <f t="shared" si="9"/>
         <v>1.9166251914865852E-2</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>5.8019859607900104</v>
       </c>
-      <c r="O41">
+      <c r="P41">
         <f t="shared" si="1"/>
         <v>20.465238960790007</v>
       </c>
-      <c r="P41">
+      <c r="Q41">
         <v>1036.3711546863369</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="R41" s="1">
         <v>48203</v>
       </c>
-      <c r="R41">
+      <c r="S41">
         <f>VLOOKUP(A41,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>446.59</v>
       </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T41">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3423,52 +3721,58 @@
       <c r="D42" t="s">
         <v>18</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42">
         <v>95.150999999999996</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>50.857705023000001</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <f t="shared" si="0"/>
         <v>44.293294976999995</v>
       </c>
-      <c r="H42">
+      <c r="I42">
         <f t="shared" si="8"/>
         <v>0.53449469814295181</v>
       </c>
-      <c r="I42">
+      <c r="J42">
         <v>2.9886032105263158</v>
       </c>
-      <c r="J42">
+      <c r="K42">
         <v>1.5432019298245614</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>0.67183529824561417</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <f t="shared" si="9"/>
         <v>0.12113113674558824</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>6.3221083538829763</v>
       </c>
-      <c r="O42">
+      <c r="P42">
         <f t="shared" si="1"/>
         <v>8.5371455819531512</v>
       </c>
-      <c r="P42">
+      <c r="Q42">
         <v>2344.380750170867</v>
       </c>
-      <c r="Q42" s="1">
+      <c r="R42" s="1">
         <v>44934</v>
       </c>
-      <c r="R42">
+      <c r="S42">
         <f>VLOOKUP(A42,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>14.81</v>
       </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T42">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3481,22 +3785,22 @@
       <c r="D43" t="s">
         <v>18</v>
       </c>
-      <c r="E43">
-        <v>0</v>
+      <c r="E43" t="s">
+        <v>90</v>
       </c>
       <c r="F43">
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I43">
         <v>1</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
       <c r="J43">
         <v>0</v>
       </c>
@@ -3509,22 +3813,28 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="O43">
-        <f t="shared" si="1"/>
+      <c r="N43">
         <v>0</v>
       </c>
       <c r="P43">
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43" s="1">
         <v>41639</v>
       </c>
-      <c r="R43">
+      <c r="S43">
         <f>VLOOKUP(A43,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3537,52 +3847,58 @@
       <c r="D44" t="s">
         <v>18</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F44">
         <v>495.4</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>35.161827991179223</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <f t="shared" si="0"/>
         <v>460.23817200882075</v>
       </c>
-      <c r="H44">
-        <f>F44/E44</f>
+      <c r="I44">
+        <f>G44/F44</f>
         <v>7.0976641080297179E-2</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>6.1037079659649125</v>
       </c>
-      <c r="J44">
+      <c r="K44">
         <v>0.61845200000000045</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
       <c r="L44">
-        <f>(I44+J44+K44+M44+N44)/E44</f>
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <f>(J44+K44+L44+N44+O44)/F44</f>
         <v>8.7431592295567115E-2</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>36.591450857259034</v>
       </c>
-      <c r="O44">
+      <c r="P44">
         <f t="shared" si="1"/>
         <v>37.209902857259031</v>
       </c>
-      <c r="P44">
+      <c r="Q44">
         <v>2538.8771131975282</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="R44" s="1">
         <v>45466</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <f>VLOOKUP(A44,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>74.940600000000003</v>
       </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3595,22 +3911,22 @@
       <c r="D45" t="s">
         <v>18</v>
       </c>
-      <c r="E45">
-        <v>0</v>
+      <c r="E45" t="s">
+        <v>90</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
       <c r="J45">
         <v>0</v>
       </c>
@@ -3623,22 +3939,28 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="O45">
-        <f t="shared" si="1"/>
+      <c r="N45">
         <v>0</v>
       </c>
       <c r="P45">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
         <v>54789</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <f>VLOOKUP(A45,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -3648,52 +3970,58 @@
       <c r="D46" t="e">
         <v>#N/A</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="s">
+        <v>81</v>
+      </c>
+      <c r="F46">
         <v>1333</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>105.69148153455664</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <f t="shared" si="0"/>
         <v>1227.3085184654433</v>
       </c>
-      <c r="H46">
-        <f>F46/E46</f>
+      <c r="I46">
+        <f>G46/F46</f>
         <v>7.9288433259232294E-2</v>
       </c>
-      <c r="I46">
+      <c r="J46">
         <v>64</v>
       </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <f>(I46+J46+K46+M46+N46)/E46</f>
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <f>(J46+K46+L46+N46+O46)/F46</f>
         <v>0.10787126756136771</v>
       </c>
-      <c r="M46" s="7">
+      <c r="N46" s="7">
         <v>79.792399659303157</v>
       </c>
-      <c r="O46">
+      <c r="P46">
         <f t="shared" si="1"/>
         <v>79.792399659303157</v>
       </c>
-      <c r="P46">
+      <c r="Q46">
         <v>1106.8476169437054</v>
       </c>
-      <c r="Q46" s="1">
+      <c r="R46" s="1">
         <v>54789</v>
       </c>
-      <c r="R46">
+      <c r="S46">
         <f>VLOOKUP(A46,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>103.657</v>
       </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T46">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -3706,22 +4034,22 @@
       <c r="D47" t="s">
         <v>26</v>
       </c>
-      <c r="E47">
-        <v>0</v>
+      <c r="E47" t="s">
+        <v>81</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
       <c r="J47">
         <v>0</v>
       </c>
@@ -3734,22 +4062,28 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="O47">
-        <f t="shared" si="1"/>
+      <c r="N47">
         <v>0</v>
       </c>
       <c r="P47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
         <v>0.32955807193225628</v>
       </c>
-      <c r="Q47" s="1">
+      <c r="R47" s="1">
         <v>54789</v>
       </c>
-      <c r="R47">
+      <c r="S47">
         <f>VLOOKUP(A47,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T47">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -3762,55 +4096,61 @@
       <c r="D48" t="s">
         <v>18</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="s">
+        <v>83</v>
+      </c>
+      <c r="F48">
         <v>85.510509903770654</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>8.8979009994058309</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <f t="shared" si="0"/>
         <v>76.612608904364819</v>
       </c>
-      <c r="H48">
-        <f>F48/E48</f>
+      <c r="I48">
+        <f>G48/F48</f>
         <v>0.10405622664885397</v>
       </c>
-      <c r="I48">
+      <c r="J48">
         <v>1.1745817385964914</v>
       </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
       <c r="K48">
         <v>0</v>
       </c>
       <c r="L48">
-        <f>(I48+J48+K48+M48+N48)/E48</f>
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f>(J48+K48+L48+N48+O48)/F48</f>
         <v>3.3934146581648977E-2</v>
       </c>
-      <c r="M48">
+      <c r="N48">
         <v>1.1061444387496087</v>
       </c>
-      <c r="N48">
+      <c r="O48">
         <v>0.621</v>
       </c>
-      <c r="O48">
+      <c r="P48">
         <f t="shared" si="1"/>
         <v>1.7271444387496087</v>
       </c>
-      <c r="P48">
+      <c r="Q48">
         <v>469.26419077904302</v>
       </c>
-      <c r="Q48" s="1">
+      <c r="R48" s="1">
         <v>54789</v>
       </c>
-      <c r="R48">
+      <c r="S48">
         <f>VLOOKUP(A48,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0.58879999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>70</v>
       </c>
@@ -3823,23 +4163,23 @@
       <c r="D49" t="s">
         <v>26</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49">
         <v>15.7677468879169</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.19799600000000001</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <f t="shared" si="0"/>
         <v>15.5697508879169</v>
       </c>
-      <c r="H49">
-        <f>F49/E49</f>
+      <c r="I49">
+        <f>G49/F49</f>
         <v>1.2557025515911079E-2</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49">
         <v>0</v>
       </c>
@@ -3847,29 +4187,35 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <f>(I49+J49+K49+M49+N49)/E49</f>
         <v>0</v>
       </c>
       <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="O49">
-        <f t="shared" si="1"/>
+        <f>(J49+K49+L49+N49+O49)/F49</f>
+        <v>0</v>
+      </c>
+      <c r="N49">
         <v>0</v>
       </c>
       <c r="P49">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49" s="1">
         <v>54789</v>
       </c>
-      <c r="R49">
+      <c r="S49">
         <f>VLOOKUP(A49,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
+      <c r="T49">
+        <v>3.5</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R49"/>
+  <autoFilter ref="A1:S49"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -308,7 +308,7 @@
     <t xml:space="preserve">HOCOL </t>
   </si>
   <si>
-    <t>Puntacion_O</t>
+    <t>Eval_Operador</t>
   </si>
 </sst>
 </file>
@@ -1064,17 +1064,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1"/>
+    <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1136,7 +1137,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1262,7 +1263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1324,7 +1325,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1517,7 +1518,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1581,7 +1582,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1905,7 +1906,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1972,7 +1973,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2036,7 +2037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2098,7 +2099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2162,7 +2163,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2360,7 +2361,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2550,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2614,7 +2615,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
@@ -2681,7 +2682,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -2812,7 +2813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -2876,7 +2877,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -2940,7 +2941,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>53</v>
       </c>
@@ -3002,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -3066,7 +3067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -3130,7 +3131,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>56</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -3258,7 +3259,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>75</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>57</v>
       </c>
@@ -3388,7 +3389,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>58</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>59</v>
       </c>
@@ -3516,7 +3517,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>60</v>
       </c>
@@ -3580,7 +3581,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>61</v>
       </c>
@@ -3644,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -3708,7 +3709,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>63</v>
       </c>
@@ -3772,7 +3773,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>64</v>
       </c>
@@ -3834,7 +3835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -3898,7 +3899,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>66</v>
       </c>
@@ -3960,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>67</v>
       </c>
@@ -4021,7 +4022,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>69</v>
       </c>
@@ -4150,7 +4151,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>70</v>
       </c>

--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -9,16 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$S$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$S$45</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="94">
   <si>
     <t>Estatus</t>
   </si>
@@ -309,6 +310,9 @@
   </si>
   <si>
     <t>Eval_Operador</t>
+  </si>
+  <si>
+    <t>LLANO NORTE</t>
   </si>
 </sst>
 </file>
@@ -372,7 +376,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1062,20 +1075,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T49"/>
+  <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5546875" style="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1137,7 +1150,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1160,7 +1173,7 @@
         <v>10.93481843138677</v>
       </c>
       <c r="H2">
-        <f t="shared" ref="H2:H49" si="0">F2-G2</f>
+        <f t="shared" ref="H2:H45" si="0">F2-G2</f>
         <v>27.055181568613232</v>
       </c>
       <c r="I2">
@@ -1201,7 +1214,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1246,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P49" si="1">K3+L3+N3+O3</f>
+        <f t="shared" ref="P3:P45" si="1">K3+L3+N3+O3</f>
         <v>0</v>
       </c>
       <c r="Q3">
@@ -1263,7 +1276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1325,7 +1338,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1389,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1451,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1518,7 +1531,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1582,7 +1595,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1711,7 +1724,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1778,7 +1791,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1842,7 +1855,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1906,7 +1919,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1973,7 +1986,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2037,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2099,335 +2112,333 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F17">
-        <v>89.710000000000008</v>
+        <v>53.01700000000001</v>
       </c>
       <c r="G17">
-        <v>33.031566771999998</v>
+        <v>24.296843508806486</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>56.67843322800001</v>
+        <v>28.720156491193524</v>
       </c>
       <c r="I17">
-        <f t="shared" ref="I17:I22" si="4">G17/F17</f>
-        <v>0.36820384318359151</v>
+        <f t="shared" ref="I17:I19" si="4">G17/F17</f>
+        <v>0.45828401284128639</v>
       </c>
       <c r="J17">
-        <v>3.0352740000000002</v>
+        <v>1.7247927684210527</v>
       </c>
       <c r="K17">
-        <v>1.3990009999999997</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>1.0252969999999999</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" ref="M17:M22" si="5">(J17+K17+L17+N17+O17)/F17</f>
-        <v>7.0653656844597942E-2</v>
+        <f t="shared" ref="M17:M19" si="5">(J17+K17+L17+N17+O17)/F17</f>
+        <v>0.22441738061772856</v>
       </c>
       <c r="N17">
-        <v>0.87876755552888264</v>
+        <v>3.172143499789065</v>
+      </c>
+      <c r="O17">
+        <v>7.0010000000000003</v>
       </c>
       <c r="P17">
         <f t="shared" si="1"/>
-        <v>3.3030655555288821</v>
+        <v>10.173143499789065</v>
       </c>
       <c r="Q17">
-        <v>2843.5725925280503</v>
+        <v>2008.4868172755073</v>
       </c>
       <c r="R17" s="1">
-        <v>46796</v>
+        <v>54789</v>
       </c>
       <c r="S17">
         <f>VLOOKUP(A17,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>35.559999999999995</v>
+        <v>58.521799999999999</v>
       </c>
       <c r="T17">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="F18">
-        <v>53.01700000000001</v>
+        <v>3046</v>
       </c>
       <c r="G18">
-        <v>24.296843508806486</v>
+        <v>282.71593233149446</v>
       </c>
       <c r="H18">
         <f t="shared" si="0"/>
-        <v>28.720156491193524</v>
+        <v>2763.2840676685055</v>
       </c>
       <c r="I18">
         <f t="shared" si="4"/>
-        <v>0.45828401284128639</v>
+        <v>9.2815473516577304E-2</v>
       </c>
       <c r="J18">
-        <v>1.7247927684210527</v>
+        <v>31.423025617894737</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.43317018964912313</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.10962180649122732</v>
       </c>
       <c r="M18">
         <f t="shared" si="5"/>
-        <v>0.22441738061772856</v>
+        <v>4.0763474011020179E-2</v>
       </c>
       <c r="N18">
-        <v>3.172143499789065</v>
+        <v>3.601724223532389</v>
       </c>
       <c r="O18">
-        <v>7.0010000000000003</v>
+        <v>88.597999999999999</v>
       </c>
       <c r="P18">
         <f t="shared" si="1"/>
-        <v>10.173143499789065</v>
+        <v>92.742516219672737</v>
       </c>
       <c r="Q18">
-        <v>2008.4868172755073</v>
+        <v>7757.7930138902639</v>
       </c>
       <c r="R18" s="1">
         <v>54789</v>
       </c>
       <c r="S18">
         <f>VLOOKUP(A18,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>58.521799999999999</v>
+        <v>254.14449999999999</v>
       </c>
       <c r="T18">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F19">
-        <v>136.75099999999998</v>
+        <v>24.291403508771928</v>
       </c>
       <c r="G19">
-        <v>43.865886068999998</v>
+        <v>14.636253820350902</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>92.885113930999978</v>
+        <v>9.6551496884210266</v>
       </c>
       <c r="I19">
         <f t="shared" si="4"/>
-        <v>0.32077195829646588</v>
+        <v>0.60252812543604439</v>
       </c>
       <c r="J19">
-        <v>3.2384445614035089</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1.8878762105263154</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0.73802121052631542</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f t="shared" si="5"/>
-        <v>5.9533599625306161E-2</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>2.2769372999041004</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>4.9028347209567311</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>4582.2173239494205</v>
+        <v>5.8737235967093078</v>
       </c>
       <c r="R19" s="1">
-        <v>47847</v>
+        <v>54789</v>
       </c>
       <c r="S19">
         <f>VLOOKUP(A19,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>59.485100000000003</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E20" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F20">
-        <v>3046</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>282.71593233149446</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>2763.2840676685055</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
-        <v>9.2815473516577304E-2</v>
+        <v>1</v>
       </c>
       <c r="J20">
-        <v>31.423025617894737</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.43317018964912313</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0.10962180649122732</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <f t="shared" si="5"/>
-        <v>4.0763474011020179E-2</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>3.601724223532389</v>
-      </c>
-      <c r="O20">
-        <v>88.597999999999999</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>92.742516219672737</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>7757.7930138902639</v>
+        <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>54789</v>
+        <v>42704</v>
       </c>
       <c r="S20">
         <f>VLOOKUP(A20,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>254.14449999999999</v>
+        <v>0</v>
       </c>
       <c r="T20">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F21">
-        <v>1932.73</v>
+        <v>1.86</v>
       </c>
       <c r="G21">
-        <v>1332.4059633419999</v>
+        <v>0.32769361000000002</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>600.32403665800007</v>
+        <v>1.53230639</v>
       </c>
       <c r="I21">
-        <f t="shared" si="4"/>
-        <v>0.68939063570286585</v>
+        <f t="shared" ref="I21:I26" si="6">G21/F21</f>
+        <v>0.17617936021505376</v>
       </c>
       <c r="J21">
-        <v>21.247375999999996</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>8.3915830000000007</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.0456739999999991</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
-        <v>2.0161148484547156E-2</v>
+        <f t="shared" ref="M21:M26" si="7">(J21+K21+L21+N21+O21)/F21</f>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>4.281423510538831</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>17.718680510538832</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>14757.377505376522</v>
+        <v>0</v>
       </c>
       <c r="R21" s="1">
         <v>54789</v>
       </c>
       <c r="S21">
         <f>VLOOKUP(A21,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>155.69</v>
+        <v>0</v>
       </c>
       <c r="T21">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
@@ -2436,27 +2447,27 @@
         <v>17</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F22">
-        <v>24.291403508771928</v>
+        <v>40.992704999999994</v>
       </c>
       <c r="G22">
-        <v>14.636253820350902</v>
+        <v>16.598780936044378</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>9.6551496884210266</v>
+        <v>24.393924063955616</v>
       </c>
       <c r="I22">
-        <f t="shared" si="4"/>
-        <v>0.60252812543604439</v>
+        <f t="shared" si="6"/>
+        <v>0.4049203617093427</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>1.0786290000000001</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2465,61 +2476,65 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.20200234011831442</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.4479933377797278</v>
+      </c>
+      <c r="O22">
+        <v>5.7539999999999996</v>
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.2019933377797276</v>
       </c>
       <c r="Q22">
-        <v>5.8737235967093078</v>
+        <v>1076.7947532696371</v>
       </c>
       <c r="R22" s="1">
         <v>54789</v>
       </c>
       <c r="S22">
         <f>VLOOKUP(A22,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
+        <v>19.791799999999999</v>
       </c>
       <c r="T22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>107.81756700000001</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>51.177479475752669</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>56.640087524247342</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <f t="shared" si="6"/>
+        <v>0.47466735616240224</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1.2768600000000001</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2528,61 +2543,65 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>0.18151913281032314</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>3.4890912635589144</v>
+      </c>
+      <c r="O23">
+        <v>14.805</v>
       </c>
       <c r="P23">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.294091263558915</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1277.6822759608524</v>
       </c>
       <c r="R23" s="1">
-        <v>42704</v>
+        <v>54789</v>
       </c>
       <c r="S23">
         <f>VLOOKUP(A23,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
+        <v>33.851599999999998</v>
       </c>
       <c r="T23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E24" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F24">
-        <v>1.86</v>
+        <v>9.379999999999999</v>
       </c>
       <c r="G24">
-        <v>0.32769361000000002</v>
+        <v>2.2718624900000002</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1.53230639</v>
+        <v>7.1081375099999988</v>
       </c>
       <c r="I24">
-        <f t="shared" ref="I24:I29" si="6">G24/F24</f>
-        <v>0.17617936021505376</v>
+        <f t="shared" si="6"/>
+        <v>0.24220282409381669</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.0454E-2</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2591,8 +2610,8 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24:M29" si="7">(J24+K24+L24+N24+O24)/F24</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1.1144989339019191E-3</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2602,51 +2621,51 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>8.4775207163247757</v>
       </c>
       <c r="R24" s="1">
         <v>54789</v>
       </c>
       <c r="S24">
         <f>VLOOKUP(A24,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="T24">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
         <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="F25">
-        <v>40.992704999999994</v>
+        <v>1160.2</v>
       </c>
       <c r="G25">
-        <v>16.598780936044378</v>
+        <v>965.98022406377004</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>24.393924063955616</v>
+        <v>194.21977593623001</v>
       </c>
       <c r="I25">
         <f t="shared" si="6"/>
-        <v>0.4049203617093427</v>
+        <v>0.83259802108582137</v>
       </c>
       <c r="J25">
-        <v>1.0786290000000001</v>
+        <v>61.472978066140357</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2656,64 +2675,61 @@
       </c>
       <c r="M25">
         <f t="shared" si="7"/>
-        <v>0.20200234011831442</v>
+        <v>5.7746949289898597E-2</v>
       </c>
       <c r="N25">
-        <v>1.4479933377797278</v>
-      </c>
-      <c r="O25">
-        <v>5.7539999999999996</v>
+        <v>5.5250325</v>
       </c>
       <c r="P25">
         <f t="shared" si="1"/>
-        <v>7.2019933377797276</v>
+        <v>5.5250325</v>
       </c>
       <c r="Q25">
-        <v>1076.7947532696371</v>
+        <v>12716.913497660986</v>
       </c>
       <c r="R25" s="1">
         <v>54789</v>
       </c>
       <c r="S25">
         <f>VLOOKUP(A25,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>19.791799999999999</v>
+        <v>454.72800000000007</v>
       </c>
       <c r="T25">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F26">
-        <v>107.81756700000001</v>
+        <v>26.8</v>
       </c>
       <c r="G26">
-        <v>51.177479475752669</v>
+        <v>7.2255541100000009</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>56.640087524247342</v>
+        <v>19.57444589</v>
       </c>
       <c r="I26">
         <f t="shared" si="6"/>
-        <v>0.47466735616240224</v>
+        <v>0.26961022798507467</v>
       </c>
       <c r="J26">
-        <v>1.2768600000000001</v>
+        <v>0.189722</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2723,38 +2739,35 @@
       </c>
       <c r="M26">
         <f t="shared" si="7"/>
-        <v>0.18151913281032314</v>
+        <v>1.0223375347111114E-2</v>
       </c>
       <c r="N26">
-        <v>3.4890912635589144</v>
-      </c>
-      <c r="O26">
-        <v>14.805</v>
+        <v>8.4264459302577865E-2</v>
       </c>
       <c r="P26">
         <f t="shared" si="1"/>
-        <v>18.294091263558915</v>
+        <v>8.4264459302577865E-2</v>
       </c>
       <c r="Q26">
-        <v>1277.6822759608524</v>
+        <v>173.56136842356264</v>
       </c>
       <c r="R26" s="1">
         <v>54789</v>
       </c>
       <c r="S26">
         <f>VLOOKUP(A26,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>33.851599999999998</v>
+        <v>3.87</v>
       </c>
       <c r="T26">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
         <v>20</v>
@@ -2763,24 +2776,23 @@
         <v>18</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="F27">
-        <v>9.379999999999999</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>2.2718624900000002</v>
+        <v>0</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>7.1081375099999988</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <f t="shared" si="6"/>
-        <v>0.24220282409381669</v>
+        <v>1</v>
       </c>
       <c r="J27">
-        <v>1.0454E-2</v>
+        <v>0</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2789,8 +2801,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <f t="shared" si="7"/>
-        <v>1.1144989339019191E-3</v>
+        <v>0</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2800,25 +2811,25 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>8.4775207163247757</v>
+        <v>0</v>
       </c>
       <c r="R27" s="1">
         <v>54789</v>
       </c>
       <c r="S27">
         <f>VLOOKUP(A27,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="T27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>25</v>
@@ -2827,24 +2838,24 @@
         <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F28">
-        <v>1160.2</v>
+        <v>68.989999999999995</v>
       </c>
       <c r="G28">
-        <v>965.98022406377004</v>
+        <v>0.104827</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>194.21977593623001</v>
+        <v>68.885172999999995</v>
       </c>
       <c r="I28">
-        <f t="shared" si="6"/>
-        <v>0.83259802108582137</v>
+        <f>G28/F28</f>
+        <v>1.5194520945064503E-3</v>
       </c>
       <c r="J28">
-        <v>61.472978066140357</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2853,97 +2864,97 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <f t="shared" si="7"/>
-        <v>5.7746949289898597E-2</v>
+        <f>(J28+K28+L28+N28+O28)/F28</f>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>5.5250325</v>
+        <v>0</v>
       </c>
       <c r="P28">
         <f t="shared" si="1"/>
-        <v>5.5250325</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>12716.913497660986</v>
+        <v>0</v>
       </c>
       <c r="R28" s="1">
         <v>54789</v>
       </c>
       <c r="S28">
         <f>VLOOKUP(A28,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>454.72800000000007</v>
+        <v>0</v>
       </c>
       <c r="T28">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" t="s">
-        <v>18</v>
+      <c r="D29" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F29">
-        <v>26.8</v>
+        <v>6430</v>
       </c>
       <c r="G29">
-        <v>7.2255541100000009</v>
+        <v>914</v>
       </c>
       <c r="H29">
         <f t="shared" si="0"/>
-        <v>19.57444589</v>
+        <v>5516</v>
       </c>
       <c r="I29">
-        <f t="shared" si="6"/>
-        <v>0.26961022798507467</v>
+        <f>G29/F29</f>
+        <v>0.1421461897356143</v>
       </c>
       <c r="J29">
-        <v>0.189722</v>
+        <v>103</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <f t="shared" si="7"/>
-        <v>1.0223375347111114E-2</v>
+        <f>(J29+K29+L29+N29+O29)/F29</f>
+        <v>5.6609642301710728E-2</v>
       </c>
       <c r="N29">
-        <v>8.4264459302577865E-2</v>
+        <v>172</v>
+      </c>
+      <c r="O29">
+        <v>20</v>
       </c>
       <c r="P29">
         <f t="shared" si="1"/>
-        <v>8.4264459302577865E-2</v>
+        <v>261</v>
       </c>
       <c r="Q29">
-        <v>173.56136842356264</v>
+        <v>20497.108714472099</v>
       </c>
       <c r="R29" s="1">
         <v>54789</v>
       </c>
       <c r="S29">
         <f>VLOOKUP(A29,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>3.87</v>
+        <v>483.58439999999985</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
@@ -3003,421 +3014,423 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>50</v>
-      </c>
-      <c r="C31" t="s">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
-      </c>
-      <c r="F31">
-        <v>68.989999999999995</v>
-      </c>
-      <c r="G31">
-        <v>0.104827</v>
-      </c>
-      <c r="H31">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2">
+        <v>198.76</v>
+      </c>
+      <c r="G31" s="3">
+        <v>1.4534310500000001</v>
+      </c>
+      <c r="H31" s="2">
         <f t="shared" si="0"/>
-        <v>68.885172999999995</v>
-      </c>
-      <c r="I31">
-        <f>G31/F31</f>
-        <v>1.5194520945064503E-3</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <f>(J31+K31+L31+N31+O31)/F31</f>
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="P31">
+        <v>197.30656894999998</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" ref="I31:I38" si="8">G31/F31</f>
+        <v>7.312492704769572E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.13343212245614033</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <f t="shared" ref="M31:M38" si="9">(J31+K31+L31+N31+O31)/F31</f>
+        <v>3.4233777375046175E-2</v>
+      </c>
+      <c r="N31" s="2">
+        <v>5.0888734686080372</v>
+      </c>
+      <c r="O31" s="2">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="P31" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31" s="1">
+        <v>6.6708734686080371</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>281.47727388134649</v>
+      </c>
+      <c r="R31" s="4">
         <v>54789</v>
       </c>
-      <c r="S31">
-        <f>VLOOKUP(A31,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
+      <c r="S31" s="5">
+        <v>-20.346000000000004</v>
       </c>
       <c r="T31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="e">
-        <v>#N/A</v>
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="E32" t="s">
         <v>81</v>
       </c>
-      <c r="F32">
-        <v>6430</v>
-      </c>
-      <c r="G32">
-        <v>914</v>
-      </c>
-      <c r="H32">
+      <c r="F32" s="2">
+        <v>111.87</v>
+      </c>
+      <c r="G32" s="3">
+        <v>9.0818396873000005</v>
+      </c>
+      <c r="H32" s="2">
         <f t="shared" si="0"/>
-        <v>5516</v>
-      </c>
-      <c r="I32">
-        <f>G32/F32</f>
-        <v>0.1421461897356143</v>
-      </c>
-      <c r="J32">
-        <v>103</v>
-      </c>
-      <c r="K32">
-        <v>28</v>
-      </c>
-      <c r="L32">
-        <v>41</v>
-      </c>
-      <c r="M32">
-        <f>(J32+K32+L32+N32+O32)/F32</f>
-        <v>5.6609642301710728E-2</v>
-      </c>
-      <c r="N32">
-        <v>172</v>
-      </c>
-      <c r="O32">
-        <v>20</v>
-      </c>
-      <c r="P32">
+        <v>102.7881603127</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="8"/>
+        <v>8.1182083555019213E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
         <f t="shared" si="1"/>
-        <v>261</v>
-      </c>
-      <c r="Q32">
-        <v>20497.108714472099</v>
-      </c>
-      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>1.3492997678717351</v>
+      </c>
+      <c r="R32" s="4">
         <v>54789</v>
       </c>
-      <c r="S32">
-        <f>VLOOKUP(A32,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>483.58439999999985</v>
+      <c r="S32" s="6">
+        <v>0</v>
       </c>
       <c r="T32">
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>55.35</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>6.0521517106999996</v>
       </c>
       <c r="H33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49.297848289299999</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <f t="shared" si="8"/>
+        <v>0.10934330100632339</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>0.32792856140350879</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>7.4183298245614038E-2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>3.4391999999999978E-2</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>2.7074478453405753E-2</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1.0620685227468856</v>
       </c>
       <c r="P33">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.1706438209924996</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>504.03702593649996</v>
       </c>
       <c r="R33" s="1">
-        <v>54789</v>
+        <v>45625</v>
       </c>
       <c r="S33">
         <f>VLOOKUP(A33,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
+        <v>7.02</v>
       </c>
       <c r="T33">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" t="s">
+        <v>84</v>
+      </c>
+      <c r="F34">
+        <v>76.649179083600245</v>
+      </c>
+      <c r="G34">
+        <v>11.0557536173825</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>65.593425466217752</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="8"/>
+        <v>0.14423838258364302</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34" s="1">
+        <v>54789</v>
+      </c>
+      <c r="S34">
+        <f>VLOOKUP(A34,[1]vpn!$G$2:$H$48,2,0)</f>
+        <v>-0.64</v>
+      </c>
+      <c r="T34">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="2" t="s">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" t="s">
+        <v>78</v>
+      </c>
+      <c r="F35">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="G35">
+        <v>22.754733343795362</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>11.045266656204635</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="8"/>
+        <v>0.67321696283418231</v>
+      </c>
+      <c r="J35">
+        <v>0.67576899999999995</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="9"/>
+        <v>4.862734146786804E-2</v>
+      </c>
+      <c r="N35">
+        <v>0.96783514161393946</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="1"/>
+        <v>0.96783514161393946</v>
+      </c>
+      <c r="Q35">
+        <v>693.65543240100033</v>
+      </c>
+      <c r="R35" s="1">
+        <v>54789</v>
+      </c>
+      <c r="S35">
+        <f>VLOOKUP(A35,[1]vpn!$G$2:$H$48,2,0)</f>
+        <v>-14.664</v>
+      </c>
+      <c r="T35">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
         <v>25</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="2">
-        <v>198.76</v>
-      </c>
-      <c r="G34" s="3">
-        <v>1.4534310500000001</v>
-      </c>
-      <c r="H34" s="2">
-        <f t="shared" si="0"/>
-        <v>197.30656894999998</v>
-      </c>
-      <c r="I34" s="2">
-        <f t="shared" ref="I34:I42" si="8">G34/F34</f>
-        <v>7.312492704769572E-3</v>
-      </c>
-      <c r="J34" s="2">
-        <v>0.13343212245614033</v>
-      </c>
-      <c r="K34" s="2">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>0</v>
-      </c>
-      <c r="M34" s="2">
-        <f t="shared" ref="M34:M42" si="9">(J34+K34+L34+N34+O34)/F34</f>
-        <v>3.4233777375046175E-2</v>
-      </c>
-      <c r="N34" s="2">
-        <v>5.0888734686080372</v>
-      </c>
-      <c r="O34" s="2">
-        <v>1.5820000000000001</v>
-      </c>
-      <c r="P34" s="2">
-        <f t="shared" si="1"/>
-        <v>6.6708734686080371</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>281.47727388134649</v>
-      </c>
-      <c r="R34" s="4">
-        <v>54789</v>
-      </c>
-      <c r="S34" s="5">
-        <v>-20.346000000000004</v>
-      </c>
-      <c r="T34">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="2">
-        <v>111.87</v>
-      </c>
-      <c r="G35" s="3">
-        <v>9.0818396873000005</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="0"/>
-        <v>102.7881603127</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="8"/>
-        <v>8.1182083555019213E-2</v>
-      </c>
-      <c r="J35" s="2">
-        <v>0</v>
-      </c>
-      <c r="K35" s="2">
-        <v>0</v>
-      </c>
-      <c r="L35" s="2">
-        <v>0</v>
-      </c>
-      <c r="M35" s="2">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="N35" s="2">
-        <v>0</v>
-      </c>
-      <c r="O35" s="2">
-        <v>0</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>1.3492997678717351</v>
-      </c>
-      <c r="R35" s="4">
-        <v>54789</v>
-      </c>
-      <c r="S35" s="6">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F36">
-        <v>55.35</v>
+        <v>24.973667798507499</v>
       </c>
       <c r="G36">
-        <v>6.0521517106999996</v>
+        <v>0.33953011999999999</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
-        <v>49.297848289299999</v>
+        <v>24.6341376785075</v>
       </c>
       <c r="I36">
         <f t="shared" si="8"/>
-        <v>0.10934330100632339</v>
+        <v>1.3595524803941347E-2</v>
       </c>
       <c r="J36">
-        <v>0.32792856140350879</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>7.4183298245614038E-2</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>3.4391999999999978E-2</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <f t="shared" si="9"/>
-        <v>2.7074478453405753E-2</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>1.0620685227468856</v>
+        <v>0</v>
       </c>
       <c r="P36">
         <f t="shared" si="1"/>
-        <v>1.1706438209924996</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>504.03702593649996</v>
+        <v>0</v>
       </c>
       <c r="R36" s="1">
-        <v>45625</v>
+        <v>54789</v>
       </c>
       <c r="S36">
         <f>VLOOKUP(A36,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>7.02</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F37">
-        <v>76.649179083600245</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G37">
-        <v>11.0557536173825</v>
+        <v>5.9989999999999991E-3</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
-        <v>65.593425466217752</v>
+        <v>4.3940010000000003</v>
       </c>
       <c r="I37">
         <f t="shared" si="8"/>
-        <v>0.14423838258364302</v>
+        <v>1.3634090909090907E-3</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3447,15 +3460,15 @@
       </c>
       <c r="S37">
         <f>VLOOKUP(A37,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>-0.64</v>
+        <v>0</v>
       </c>
       <c r="T37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -3464,88 +3477,87 @@
         <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F38">
-        <v>33.799999999999997</v>
+        <v>2199</v>
       </c>
       <c r="G38">
-        <v>22.754733343795362</v>
+        <v>182.57929338079796</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
-        <v>11.045266656204635</v>
+        <v>2016.4207066192021</v>
       </c>
       <c r="I38">
         <f t="shared" si="8"/>
-        <v>0.67321696283418231</v>
+        <v>8.3028328049476102E-2</v>
       </c>
       <c r="J38">
-        <v>0.67576899999999995</v>
+        <v>21.681349000000001</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>11.147173999999998</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>3.5160789999999995</v>
       </c>
       <c r="M38">
         <f t="shared" si="9"/>
-        <v>4.862734146786804E-2</v>
+        <v>1.9166251914865852E-2</v>
       </c>
       <c r="N38">
-        <v>0.96783514161393946</v>
+        <v>5.8019859607900104</v>
       </c>
       <c r="P38">
         <f t="shared" si="1"/>
-        <v>0.96783514161393946</v>
+        <v>20.465238960790007</v>
       </c>
       <c r="Q38">
-        <v>693.65543240100033</v>
+        <v>1036.3711546863369</v>
       </c>
       <c r="R38" s="1">
-        <v>54789</v>
+        <v>48203</v>
       </c>
       <c r="S38">
         <f>VLOOKUP(A38,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>-14.664</v>
+        <v>446.59</v>
       </c>
       <c r="T38">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E39" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F39">
-        <v>24.973667798507499</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>0.33953011999999999</v>
+        <v>0</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
-        <v>24.6341376785075</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <f t="shared" si="8"/>
-        <v>1.3595524803941347E-2</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3557,7 +3569,6 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N39">
@@ -3571,223 +3582,218 @@
         <v>0</v>
       </c>
       <c r="R39" s="1">
-        <v>54789</v>
+        <v>41639</v>
       </c>
       <c r="S39">
         <f>VLOOKUP(A39,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
       <c r="T39">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D40" t="s">
         <v>18</v>
       </c>
       <c r="E40" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="F40">
-        <v>4.4000000000000004</v>
+        <v>495.4</v>
       </c>
       <c r="G40">
-        <v>5.9989999999999991E-3</v>
+        <v>35.161827991179223</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
-        <v>4.3940010000000003</v>
+        <v>460.23817200882075</v>
       </c>
       <c r="I40">
-        <f t="shared" si="8"/>
-        <v>1.3634090909090907E-3</v>
+        <f>G40/F40</f>
+        <v>7.0976641080297179E-2</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>6.1037079659649125</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.61845200000000045</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <f t="shared" si="9"/>
-        <v>0</v>
+        <f>(J40+K40+L40+N40+O40)/F40</f>
+        <v>8.7431592295567115E-2</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>36.591450857259034</v>
       </c>
       <c r="P40">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>37.209902857259031</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>2538.8771131975282</v>
       </c>
       <c r="R40" s="1">
-        <v>54789</v>
+        <v>45466</v>
       </c>
       <c r="S40">
         <f>VLOOKUP(A40,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
+        <v>74.940600000000003</v>
       </c>
       <c r="T40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
         <v>18</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F41">
-        <v>2199</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>182.57929338079796</v>
+        <v>0</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
-        <v>2016.4207066192021</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <f t="shared" si="8"/>
-        <v>8.3028328049476102E-2</v>
+        <v>1</v>
       </c>
       <c r="J41">
-        <v>21.681349000000001</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>11.147173999999998</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>3.5160789999999995</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" si="9"/>
-        <v>1.9166251914865852E-2</v>
+        <v>0</v>
       </c>
       <c r="N41">
-        <v>5.8019859607900104</v>
+        <v>0</v>
       </c>
       <c r="P41">
         <f t="shared" si="1"/>
-        <v>20.465238960790007</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>1036.3711546863369</v>
+        <v>0</v>
       </c>
       <c r="R41" s="1">
-        <v>48203</v>
+        <v>54789</v>
       </c>
       <c r="S41">
         <f>VLOOKUP(A41,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>446.59</v>
+        <v>0</v>
       </c>
       <c r="T41">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="D42" t="s">
-        <v>18</v>
+      <c r="D42" t="e">
+        <v>#N/A</v>
       </c>
       <c r="E42" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F42">
-        <v>95.150999999999996</v>
+        <v>1333</v>
       </c>
       <c r="G42">
-        <v>50.857705023000001</v>
+        <v>105.69148153455664</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
-        <v>44.293294976999995</v>
+        <v>1227.3085184654433</v>
       </c>
       <c r="I42">
-        <f t="shared" si="8"/>
-        <v>0.53449469814295181</v>
+        <f>G42/F42</f>
+        <v>7.9288433259232294E-2</v>
       </c>
       <c r="J42">
-        <v>2.9886032105263158</v>
+        <v>64</v>
       </c>
       <c r="K42">
-        <v>1.5432019298245614</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>0.67183529824561417</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="9"/>
-        <v>0.12113113674558824</v>
-      </c>
-      <c r="N42">
-        <v>6.3221083538829763</v>
+        <f>(J42+K42+L42+N42+O42)/F42</f>
+        <v>0.10787126756136771</v>
+      </c>
+      <c r="N42" s="7">
+        <v>79.792399659303157</v>
       </c>
       <c r="P42">
         <f t="shared" si="1"/>
-        <v>8.5371455819531512</v>
+        <v>79.792399659303157</v>
       </c>
       <c r="Q42">
-        <v>2344.380750170867</v>
+        <v>1106.8476169437054</v>
       </c>
       <c r="R42" s="1">
-        <v>44934</v>
+        <v>54789</v>
       </c>
       <c r="S42">
         <f>VLOOKUP(A42,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>14.81</v>
+        <v>103.657</v>
       </c>
       <c r="T42">
-        <v>3.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -3822,22 +3828,22 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>0.32955807193225628</v>
       </c>
       <c r="R43" s="1">
-        <v>41639</v>
+        <v>54789</v>
       </c>
       <c r="S43">
         <f>VLOOKUP(A43,[1]vpn!$G$2:$H$48,2,0)</f>
         <v>0</v>
       </c>
       <c r="T43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -3849,84 +3855,88 @@
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="F44">
-        <v>495.4</v>
+        <v>85.510509903770654</v>
       </c>
       <c r="G44">
-        <v>35.161827991179223</v>
+        <v>8.8979009994058309</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
-        <v>460.23817200882075</v>
+        <v>76.612608904364819</v>
       </c>
       <c r="I44">
         <f>G44/F44</f>
-        <v>7.0976641080297179E-2</v>
+        <v>0.10405622664885397</v>
       </c>
       <c r="J44">
-        <v>6.1037079659649125</v>
+        <v>1.1745817385964914</v>
       </c>
       <c r="K44">
-        <v>0.61845200000000045</v>
+        <v>0</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
         <f>(J44+K44+L44+N44+O44)/F44</f>
-        <v>8.7431592295567115E-2</v>
+        <v>3.3934146581648977E-2</v>
       </c>
       <c r="N44">
-        <v>36.591450857259034</v>
+        <v>1.1061444387496087</v>
+      </c>
+      <c r="O44">
+        <v>0.621</v>
       </c>
       <c r="P44">
         <f t="shared" si="1"/>
-        <v>37.209902857259031</v>
+        <v>1.7271444387496087</v>
       </c>
       <c r="Q44">
-        <v>2538.8771131975282</v>
+        <v>469.26419077904302</v>
       </c>
       <c r="R44" s="1">
-        <v>45466</v>
+        <v>54789</v>
       </c>
       <c r="S44">
         <f>VLOOKUP(A44,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>74.940600000000003</v>
+        <v>0.58879999999999999</v>
       </c>
       <c r="T44">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>15.7677468879169</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.19799600000000001</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15.5697508879169</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <f>G45/F45</f>
+        <v>1.2557025515911079E-2</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3938,6 +3948,7 @@
         <v>0</v>
       </c>
       <c r="M45">
+        <f>(J45+K45+L45+N45+O45)/F45</f>
         <v>0</v>
       </c>
       <c r="N45">
@@ -3958,265 +3969,465 @@
         <v>0</v>
       </c>
       <c r="T45">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>89</v>
+      </c>
+      <c r="F46">
+        <v>2254.3419999999996</v>
+      </c>
+      <c r="G46">
+        <v>1460.161121206</v>
+      </c>
+      <c r="H46">
+        <v>794.18087879399968</v>
+      </c>
+      <c r="I46">
+        <v>0.64771056086698475</v>
+      </c>
+      <c r="J46">
+        <v>30.509697771929822</v>
+      </c>
+      <c r="K46">
+        <v>13.221662140350878</v>
+      </c>
+      <c r="L46">
+        <v>7.4808275087719291</v>
+      </c>
+      <c r="M46">
+        <v>2.8820571209207582E-2</v>
+      </c>
+      <c r="N46">
+        <v>13.75923671985479</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>34.461726368977594</v>
+      </c>
+      <c r="Q46">
+        <v>24527.548172024857</v>
+      </c>
+      <c r="R46" s="1">
+        <v>48591.5</v>
+      </c>
+      <c r="S46">
+        <v>265.54509999999999</v>
+      </c>
+      <c r="T46">
+        <v>3.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:S45"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T6"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:T6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="E46" t="s">
-        <v>81</v>
-      </c>
-      <c r="F46">
-        <v>1333</v>
-      </c>
-      <c r="G46">
-        <v>105.69148153455664</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="0"/>
-        <v>1227.3085184654433</v>
-      </c>
-      <c r="I46">
-        <f>G46/F46</f>
-        <v>7.9288433259232294E-2</v>
-      </c>
-      <c r="J46">
-        <v>64</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <f>(J46+K46+L46+N46+O46)/F46</f>
-        <v>0.10787126756136771</v>
-      </c>
-      <c r="N46" s="7">
-        <v>79.792399659303157</v>
-      </c>
-      <c r="P46">
-        <f t="shared" si="1"/>
-        <v>79.792399659303157</v>
-      </c>
-      <c r="Q46">
-        <v>1106.8476169437054</v>
-      </c>
-      <c r="R46" s="1">
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2">
+        <v>89.710000000000008</v>
+      </c>
+      <c r="G2">
+        <v>33.031566771999998</v>
+      </c>
+      <c r="H2">
+        <v>56.67843322800001</v>
+      </c>
+      <c r="I2">
+        <v>0.36820384318359151</v>
+      </c>
+      <c r="J2">
+        <v>3.0352740000000002</v>
+      </c>
+      <c r="K2">
+        <v>1.3990009999999997</v>
+      </c>
+      <c r="L2">
+        <v>1.0252969999999999</v>
+      </c>
+      <c r="M2">
+        <v>7.0653656844597942E-2</v>
+      </c>
+      <c r="N2">
+        <v>0.87876755552888264</v>
+      </c>
+      <c r="P2">
+        <v>3.3030655555288821</v>
+      </c>
+      <c r="Q2">
+        <v>2843.5725925280503</v>
+      </c>
+      <c r="R2" s="1">
+        <v>46796</v>
+      </c>
+      <c r="S2">
+        <v>35.559999999999995</v>
+      </c>
+      <c r="T2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3">
+        <v>136.75099999999998</v>
+      </c>
+      <c r="G3">
+        <v>43.865886068999998</v>
+      </c>
+      <c r="H3">
+        <v>92.885113930999978</v>
+      </c>
+      <c r="I3">
+        <v>0.32077195829646588</v>
+      </c>
+      <c r="J3">
+        <v>3.2384445614035089</v>
+      </c>
+      <c r="K3">
+        <v>1.8878762105263154</v>
+      </c>
+      <c r="L3">
+        <v>0.73802121052631542</v>
+      </c>
+      <c r="M3">
+        <v>5.9533599625306161E-2</v>
+      </c>
+      <c r="N3">
+        <v>2.2769372999041004</v>
+      </c>
+      <c r="P3">
+        <v>4.9028347209567311</v>
+      </c>
+      <c r="Q3">
+        <v>4582.2173239494205</v>
+      </c>
+      <c r="R3" s="1">
+        <v>47847</v>
+      </c>
+      <c r="S3">
+        <v>59.485100000000003</v>
+      </c>
+      <c r="T3">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>1932.73</v>
+      </c>
+      <c r="G4">
+        <v>1332.4059633419999</v>
+      </c>
+      <c r="H4">
+        <v>600.32403665800007</v>
+      </c>
+      <c r="I4">
+        <v>0.68939063570286585</v>
+      </c>
+      <c r="J4">
+        <v>21.247375999999996</v>
+      </c>
+      <c r="K4">
+        <v>8.3915830000000007</v>
+      </c>
+      <c r="L4">
+        <v>5.0456739999999991</v>
+      </c>
+      <c r="M4">
+        <v>2.0161148484547156E-2</v>
+      </c>
+      <c r="N4">
+        <v>4.281423510538831</v>
+      </c>
+      <c r="P4">
+        <v>17.718680510538832</v>
+      </c>
+      <c r="Q4">
+        <v>14757.377505376522</v>
+      </c>
+      <c r="R4" s="1">
         <v>54789</v>
       </c>
-      <c r="S46">
-        <f>VLOOKUP(A46,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>103.657</v>
-      </c>
-      <c r="T46">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" t="s">
-        <v>81</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>1</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0.32955807193225628</v>
-      </c>
-      <c r="R47" s="1">
-        <v>54789</v>
-      </c>
-      <c r="S47">
-        <f>VLOOKUP(A47,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>25</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="S4">
+        <v>155.69</v>
+      </c>
+      <c r="T4">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E48" t="s">
-        <v>83</v>
-      </c>
-      <c r="F48">
-        <v>85.510509903770654</v>
-      </c>
-      <c r="G48">
-        <v>8.8979009994058309</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="0"/>
-        <v>76.612608904364819</v>
-      </c>
-      <c r="I48">
-        <f>G48/F48</f>
-        <v>0.10405622664885397</v>
-      </c>
-      <c r="J48">
-        <v>1.1745817385964914</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <f>(J48+K48+L48+N48+O48)/F48</f>
-        <v>3.3934146581648977E-2</v>
-      </c>
-      <c r="N48">
-        <v>1.1061444387496087</v>
-      </c>
-      <c r="O48">
-        <v>0.621</v>
-      </c>
-      <c r="P48">
-        <f t="shared" si="1"/>
-        <v>1.7271444387496087</v>
-      </c>
-      <c r="Q48">
-        <v>469.26419077904302</v>
-      </c>
-      <c r="R48" s="1">
-        <v>54789</v>
-      </c>
-      <c r="S48">
-        <f>VLOOKUP(A48,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0.58879999999999999</v>
-      </c>
-      <c r="T48">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>70</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="C49" t="s">
-        <v>25</v>
-      </c>
-      <c r="D49" t="s">
-        <v>26</v>
-      </c>
-      <c r="E49" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49">
-        <v>15.7677468879169</v>
-      </c>
-      <c r="G49">
-        <v>0.19799600000000001</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="0"/>
-        <v>15.5697508879169</v>
-      </c>
-      <c r="I49">
-        <f>G49/F49</f>
-        <v>1.2557025515911079E-2</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <f>(J49+K49+L49+N49+O49)/F49</f>
-        <v>0</v>
-      </c>
-      <c r="N49">
-        <v>0</v>
-      </c>
-      <c r="P49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49" s="1">
-        <v>54789</v>
-      </c>
-      <c r="S49">
-        <f>VLOOKUP(A49,[1]vpn!$G$2:$H$48,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>3.5</v>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5">
+        <v>95.150999999999996</v>
+      </c>
+      <c r="G5">
+        <v>50.857705023000001</v>
+      </c>
+      <c r="H5">
+        <v>44.293294976999995</v>
+      </c>
+      <c r="I5">
+        <v>0.53449469814295181</v>
+      </c>
+      <c r="J5">
+        <v>2.9886032105263158</v>
+      </c>
+      <c r="K5">
+        <v>1.5432019298245614</v>
+      </c>
+      <c r="L5">
+        <v>0.67183529824561417</v>
+      </c>
+      <c r="M5">
+        <v>0.12113113674558824</v>
+      </c>
+      <c r="N5">
+        <v>6.3221083538829763</v>
+      </c>
+      <c r="P5">
+        <v>8.5371455819531512</v>
+      </c>
+      <c r="Q5">
+        <v>2344.380750170867</v>
+      </c>
+      <c r="R5" s="1">
+        <v>44934</v>
+      </c>
+      <c r="S5">
+        <v>14.81</v>
+      </c>
+      <c r="T5">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6">
+        <f>SUM(F2:F5)</f>
+        <v>2254.3419999999996</v>
+      </c>
+      <c r="G6">
+        <f t="shared" ref="G6:H6" si="0">SUM(G2:G5)</f>
+        <v>1460.161121206</v>
+      </c>
+      <c r="H6">
+        <f t="shared" ref="H6" si="1">F6-G6</f>
+        <v>794.18087879399968</v>
+      </c>
+      <c r="I6">
+        <f t="shared" ref="I6" si="2">G6/F6</f>
+        <v>0.64771056086698475</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6" si="3">SUM(J2:J5)</f>
+        <v>30.509697771929822</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6" si="4">SUM(K2:K5)</f>
+        <v>13.221662140350878</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ref="L6" si="5">SUM(L2:L5)</f>
+        <v>7.4808275087719291</v>
+      </c>
+      <c r="M6">
+        <f>(J6+K6+L6+N6+O6)/F6</f>
+        <v>2.8820571209207582E-2</v>
+      </c>
+      <c r="N6">
+        <f>SUM(N2:N5)</f>
+        <v>13.75923671985479</v>
+      </c>
+      <c r="O6">
+        <f>SUM(O2:O5)</f>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f>K6+L6+N6+O6</f>
+        <v>34.461726368977594</v>
+      </c>
+      <c r="Q6">
+        <f>SUM(Q2:Q5)</f>
+        <v>24527.548172024857</v>
+      </c>
+      <c r="R6" s="1">
+        <f>AVERAGE(R2:R5)</f>
+        <v>48591.5</v>
+      </c>
+      <c r="S6">
+        <f>SUM(S2:S5)</f>
+        <v>265.54509999999999</v>
+      </c>
+      <c r="T6">
+        <v>3.7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S49"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9396"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$S$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$46</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="95">
   <si>
     <t>Estatus</t>
   </si>
@@ -313,6 +313,9 @@
   </si>
   <si>
     <t>LLANO NORTE</t>
+  </si>
+  <si>
+    <t>LLANOS NORTE</t>
   </si>
 </sst>
 </file>
@@ -376,16 +379,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFF00"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1078,17 +1072,17 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -1150,7 +1144,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1214,7 +1208,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1276,7 +1270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1332,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1402,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -1464,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1531,7 +1525,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>29</v>
       </c>
@@ -1595,7 +1589,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
@@ -1657,7 +1651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1724,7 +1718,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1791,7 +1785,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1855,7 +1849,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1919,7 +1913,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1986,7 +1980,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -2050,7 +2044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2112,7 +2106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2179,7 +2173,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2246,7 +2240,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2310,7 +2304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2372,7 +2366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2436,7 +2430,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2503,7 +2497,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2570,7 +2564,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2634,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -2698,7 +2692,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -2762,7 +2756,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>53</v>
       </c>
@@ -2824,7 +2818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -2888,7 +2882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -2952,7 +2946,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -3014,7 +3008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>74</v>
       </c>
@@ -3080,7 +3074,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>75</v>
       </c>
@@ -3146,7 +3140,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
@@ -3210,7 +3204,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
@@ -3274,7 +3268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
@@ -3338,7 +3332,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
@@ -3402,7 +3396,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
@@ -3466,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
@@ -3530,7 +3524,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -3592,7 +3586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -3656,7 +3650,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -3718,7 +3712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -3779,7 +3773,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -3841,7 +3835,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -3908,7 +3902,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -3972,9 +3966,9 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
@@ -4035,7 +4029,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S45"/>
+  <autoFilter ref="A1:T46"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4048,12 +4042,12 @@
       <selection activeCell="A6" sqref="A6:T6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>73</v>
       </c>
@@ -4115,7 +4109,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>38</v>
       </c>
@@ -4174,7 +4168,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -4233,7 +4227,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4292,7 +4286,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -4351,7 +4345,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -4372,7 +4366,7 @@
         <v>2254.3419999999996</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:H6" si="0">SUM(G2:G5)</f>
+        <f t="shared" ref="G6" si="0">SUM(G2:G5)</f>
         <v>1460.161121206</v>
       </c>
       <c r="H6">

--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -1072,7 +1072,7 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,6 +1080,7 @@
     <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="11.5703125" style="1"/>
     <col min="20" max="20" width="14" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -1205,7 +1206,7 @@
         <v>-1.73</v>
       </c>
       <c r="T2">
-        <v>3.6</v>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -1329,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2.8</v>
+        <v>4.7714285714285714</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
@@ -1522,7 +1523,7 @@
         <v>73.135599999999997</v>
       </c>
       <c r="T7">
-        <v>2.9</v>
+        <v>2.7999999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
@@ -1586,7 +1587,7 @@
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2.8</v>
+        <v>4.7714285714285714</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
@@ -1715,7 +1716,7 @@
         <v>0.41</v>
       </c>
       <c r="T10">
-        <v>2.2999999999999998</v>
+        <v>4.628571428571429</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
@@ -1782,7 +1783,7 @@
         <v>37.311999999999998</v>
       </c>
       <c r="T11">
-        <v>2.8</v>
+        <v>4.7714285714285714</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
@@ -1846,7 +1847,7 @@
         <v>7.8213999999999997</v>
       </c>
       <c r="T12">
-        <v>2.5</v>
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
@@ -1910,7 +1911,7 @@
         <v>4.75</v>
       </c>
       <c r="T13">
-        <v>2.1</v>
+        <v>3.7142857142857144</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
@@ -1977,7 +1978,7 @@
         <v>-0.97380000000000155</v>
       </c>
       <c r="T14">
-        <v>2.9</v>
+        <v>2.7999999999999994</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
@@ -2170,7 +2171,7 @@
         <v>58.521799999999999</v>
       </c>
       <c r="T17">
-        <v>2.9</v>
+        <v>2.7999999999999994</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
@@ -2237,7 +2238,7 @@
         <v>254.14449999999999</v>
       </c>
       <c r="T18">
-        <v>3.3</v>
+        <v>3.6857142857142855</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
@@ -2427,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="T21">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
@@ -2494,7 +2495,7 @@
         <v>19.791799999999999</v>
       </c>
       <c r="T22">
-        <v>2.9</v>
+        <v>2.7999999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
@@ -2561,7 +2562,7 @@
         <v>33.851599999999998</v>
       </c>
       <c r="T23">
-        <v>2.9</v>
+        <v>2.7999999999999994</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
@@ -2689,7 +2690,7 @@
         <v>454.72800000000007</v>
       </c>
       <c r="T25">
-        <v>3.3</v>
+        <v>4.0285714285714285</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
@@ -2753,7 +2754,7 @@
         <v>3.87</v>
       </c>
       <c r="T26">
-        <v>2.5</v>
+        <v>3.7428571428571429</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
@@ -2943,7 +2944,7 @@
         <v>483.58439999999985</v>
       </c>
       <c r="T29">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
@@ -3071,7 +3072,7 @@
         <v>-20.346000000000004</v>
       </c>
       <c r="T31">
-        <v>2.8</v>
+        <v>4.7714285714285714</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
@@ -3137,7 +3138,7 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.25">
@@ -3201,7 +3202,7 @@
         <v>7.02</v>
       </c>
       <c r="T33">
-        <v>2.2999999999999998</v>
+        <v>4.628571428571429</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.25">
@@ -3329,7 +3330,7 @@
         <v>-14.664</v>
       </c>
       <c r="T35">
-        <v>2.9</v>
+        <v>2.7999999999999994</v>
       </c>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.25">
@@ -3393,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.25">
@@ -3521,7 +3522,7 @@
         <v>446.59</v>
       </c>
       <c r="T38">
-        <v>3.6</v>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.25">
@@ -3647,7 +3648,7 @@
         <v>74.940600000000003</v>
       </c>
       <c r="T40">
-        <v>3.6</v>
+        <v>3.8571428571428572</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.25">
@@ -3770,7 +3771,7 @@
         <v>103.657</v>
       </c>
       <c r="T42">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.25">
@@ -3832,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="T43">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
@@ -3899,7 +3900,7 @@
         <v>0.58879999999999999</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>3.7428571428571429</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
@@ -3963,7 +3964,7 @@
         <v>0</v>
       </c>
       <c r="T45">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
@@ -4025,7 +4026,7 @@
         <v>265.54509999999999</v>
       </c>
       <c r="T46">
-        <v>3.7</v>
+        <v>4.4119047619047622</v>
       </c>
     </row>
   </sheetData>

--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -14,9 +14,10 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$46</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="115">
   <si>
     <t>Estatus</t>
   </si>
@@ -316,16 +317,83 @@
   </si>
   <si>
     <t>LLANOS NORTE</t>
+  </si>
+  <si>
+    <t>DINA T</t>
+  </si>
+  <si>
+    <t>AKACIAS</t>
+  </si>
+  <si>
+    <t>FUENTE</t>
+  </si>
+  <si>
+    <t>GERENCIA VAS</t>
+  </si>
+  <si>
+    <t>ECP</t>
+  </si>
+  <si>
+    <t>OOIP - MBls</t>
+  </si>
+  <si>
+    <t>OOIP Oficial</t>
+  </si>
+  <si>
+    <t>Np - MBls</t>
+  </si>
+  <si>
+    <t>Dic/2021-OFM</t>
+  </si>
+  <si>
+    <t>P1 - - MBls</t>
+  </si>
+  <si>
+    <t>Balance de reservas oficial</t>
+  </si>
+  <si>
+    <t>P2 - MBls</t>
+  </si>
+  <si>
+    <t>P3 - - MBls</t>
+  </si>
+  <si>
+    <t>RC- MBls</t>
+  </si>
+  <si>
+    <t>Balance de RC oficial</t>
+  </si>
+  <si>
+    <t>RV - MBls</t>
+  </si>
+  <si>
+    <t>PLP 2021</t>
+  </si>
+  <si>
+    <t>Fecha_finalización contrato</t>
+  </si>
+  <si>
+    <t>VPN activo (MUSD)</t>
+  </si>
+  <si>
+    <t>Portafolio/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -366,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -375,6 +443,11 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1069,10 +1142,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T46"/>
+  <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3165,7 @@
       <c r="E32" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="8">
         <v>111.87</v>
       </c>
       <c r="G32" s="3">
@@ -4027,6 +4101,130 @@
       </c>
       <c r="T46">
         <v>4.4119047619047622</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F47">
+        <v>281</v>
+      </c>
+      <c r="G47" s="9">
+        <v>74.25</v>
+      </c>
+      <c r="H47" s="9">
+        <f>F47-G47</f>
+        <v>206.75</v>
+      </c>
+      <c r="I47" s="10">
+        <f>G47/F47</f>
+        <v>0.26423487544483987</v>
+      </c>
+      <c r="J47" s="10">
+        <v>7.09</v>
+      </c>
+      <c r="K47" s="10">
+        <v>0</v>
+      </c>
+      <c r="L47" s="10">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <f>(J47+K47+L47+N47+O47)/F47</f>
+        <v>8.7900355871886104E-2</v>
+      </c>
+      <c r="N47" s="9">
+        <v>11.78</v>
+      </c>
+      <c r="O47" s="9">
+        <v>5.83</v>
+      </c>
+      <c r="P47" s="9">
+        <f>K47+L47+N47+O47</f>
+        <v>17.61</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>2809</v>
+      </c>
+      <c r="R47" s="11">
+        <v>45082</v>
+      </c>
+      <c r="S47" s="9">
+        <v>56.4</v>
+      </c>
+      <c r="T47" s="9">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2471</v>
+      </c>
+      <c r="G48" s="9">
+        <v>23</v>
+      </c>
+      <c r="H48" s="9">
+        <f>F48-G48</f>
+        <v>2448</v>
+      </c>
+      <c r="I48" s="10">
+        <f>G48/F48</f>
+        <v>9.3079724807770131E-3</v>
+      </c>
+      <c r="J48" s="9">
+        <v>74</v>
+      </c>
+      <c r="K48" s="9">
+        <v>78</v>
+      </c>
+      <c r="L48" s="9">
+        <v>52</v>
+      </c>
+      <c r="M48" s="9">
+        <f>(J48+K48+L48+N48+O48)/F48</f>
+        <v>0.19708619991906112</v>
+      </c>
+      <c r="N48" s="9">
+        <v>283</v>
+      </c>
+      <c r="O48" s="9">
+        <v>0</v>
+      </c>
+      <c r="P48" s="9">
+        <f>K48+L48+N48+O48</f>
+        <v>413</v>
+      </c>
+      <c r="Q48" s="12">
+        <v>16775.614657534246</v>
+      </c>
+      <c r="R48" s="11">
+        <v>45263</v>
+      </c>
+      <c r="S48" s="9">
+        <v>654</v>
+      </c>
+      <c r="T48" s="9">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -4040,7 +4238,7 @@
   <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:T6"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4425,4 +4623,146 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G2:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H5">
+        <v>281</v>
+      </c>
+      <c r="I5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6">
+        <v>74.25</v>
+      </c>
+      <c r="I6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="8" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8">
+        <v>7.09</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>108</v>
+      </c>
+      <c r="H11">
+        <v>11.78</v>
+      </c>
+      <c r="I11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12">
+        <v>5.83</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" s="1">
+        <v>45082</v>
+      </c>
+    </row>
+    <row r="14" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14">
+        <v>56.4</v>
+      </c>
+      <c r="I14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="116">
   <si>
     <t>Estatus</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>Portafolio/2022</t>
+  </si>
+  <si>
+    <t>VAO</t>
   </si>
 </sst>
 </file>
@@ -1145,8 +1148,8 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4110,12 +4113,16 @@
       <c r="B47" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
+      <c r="C47" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
       <c r="E47" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="9">
         <v>281</v>
       </c>
       <c r="G47" s="9">
@@ -4172,47 +4179,51 @@
       <c r="B48" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="C48" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
       <c r="E48" s="9" t="s">
         <v>81</v>
       </c>
       <c r="F48" s="9">
-        <v>2471</v>
+        <v>3210</v>
       </c>
       <c r="G48" s="9">
-        <v>23</v>
+        <v>28.9</v>
       </c>
       <c r="H48" s="9">
         <f>F48-G48</f>
-        <v>2448</v>
+        <v>3181.1</v>
       </c>
       <c r="I48" s="10">
         <f>G48/F48</f>
-        <v>9.3079724807770131E-3</v>
+        <v>9.0031152647975076E-3</v>
       </c>
       <c r="J48" s="9">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="K48" s="9">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="L48" s="9">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="M48" s="9">
         <f>(J48+K48+L48+N48+O48)/F48</f>
-        <v>0.19708619991906112</v>
+        <v>7.5389408099688471E-2</v>
       </c>
       <c r="N48" s="9">
-        <v>283</v>
+        <v>101</v>
       </c>
       <c r="O48" s="9">
         <v>0</v>
       </c>
       <c r="P48" s="9">
         <f>K48+L48+N48+O48</f>
-        <v>413</v>
+        <v>190</v>
       </c>
       <c r="Q48" s="12">
         <v>16775.614657534246</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="115">
   <si>
     <t>Estatus</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>Portafolio/2022</t>
-  </si>
-  <si>
-    <t>VAO</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1146,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G54" sqref="G54"/>
+      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4114,7 +4111,7 @@
         <v>16</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>115</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>18</v>

--- a/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
+++ b/bd/PRIORIZACION_ACTIVOS_R_V1.xlsx
@@ -20,7 +20,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$T$48</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1145,8 +1145,8 @@
   <dimension ref="A1:T48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4226,7 +4226,7 @@
         <v>16775.614657534246</v>
       </c>
       <c r="R48" s="11">
-        <v>45263</v>
+        <v>50377</v>
       </c>
       <c r="S48" s="9">
         <v>654</v>
@@ -4236,7 +4236,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T46"/>
+  <autoFilter ref="A1:T48"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
